--- a/data/trans_media/IQ17B_M-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ17B_M-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,47</t>
+          <t>2,1; 4,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,71</t>
+          <t>1,77; 3,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,43</t>
+          <t>2,03; 4,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,19</t>
+          <t>2,33; 6,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,73</t>
+          <t>2,33; 4,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,97</t>
+          <t>2,25; 4,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,75</t>
+          <t>1,85; 3,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,48</t>
+          <t>1,23; 3,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,24</t>
+          <t>2,59; 4,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,86</t>
+          <t>2,22; 3,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,71</t>
+          <t>2,1; 3,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,23</t>
+          <t>2,0; 4,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,71</t>
+          <t>2,82; 3,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,02</t>
+          <t>2,28; 3,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 3,57</t>
+          <t>2,61; 3,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,38</t>
+          <t>2,0; 3,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,71</t>
+          <t>2,85; 3,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,39</t>
+          <t>2,42; 3,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,33</t>
+          <t>2,5; 3,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,94</t>
+          <t>2,69; 3,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,56</t>
+          <t>2,92; 3,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,04</t>
+          <t>2,46; 3,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 3,33</t>
+          <t>2,67; 3,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,41</t>
+          <t>2,51; 3,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,67</t>
+          <t>2,96; 3,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 3,49</t>
+          <t>2,82; 3,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,18</t>
+          <t>2,52; 3,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,66</t>
+          <t>2,83; 3,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,73</t>
+          <t>3,0; 3,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,38</t>
+          <t>2,77; 3,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,22</t>
+          <t>2,59; 3,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 4,03</t>
+          <t>3,17; 4,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 3,62</t>
+          <t>3,1; 3,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,32</t>
+          <t>2,87; 3,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 3,09</t>
+          <t>2,64; 3,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 3,71</t>
+          <t>3,11; 3,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 3,97</t>
+          <t>3,08; 3,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,52 +1154,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,04</t>
+          <t>2,22; 2,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 3,94</t>
+          <t>2,68; 3,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,41</t>
+          <t>2,64; 3,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,62</t>
+          <t>2,93; 3,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,15</t>
+          <t>2,42; 3,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,34</t>
+          <t>3,38; 4,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 3,57</t>
+          <t>2,98; 3,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,53</t>
+          <t>2,97; 3,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 2,93</t>
+          <t>2,38; 2,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 3,97</t>
+          <t>3,14; 3,94</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,44</t>
+          <t>2,73; 3,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,29</t>
+          <t>2,63; 3,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,45</t>
+          <t>2,78; 3,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 4,15</t>
+          <t>3,03; 4,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,19</t>
+          <t>2,57; 3,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,68</t>
+          <t>2,92; 3,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,17</t>
+          <t>3,08; 4,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,7; 3,17</t>
+          <t>2,68; 3,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,46</t>
+          <t>2,97; 3,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 4,02</t>
+          <t>3,19; 3,99</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,48</t>
+          <t>3,08; 3,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,17</t>
+          <t>2,82; 3,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,09</t>
+          <t>2,72; 3,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,52</t>
+          <t>2,99; 3,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,34</t>
+          <t>2,95; 3,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,21</t>
+          <t>2,85; 3,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,15</t>
+          <t>2,8; 3,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 3,82</t>
+          <t>3,31; 3,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,34</t>
+          <t>3,08; 3,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,14</t>
+          <t>2,87; 3,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 3,07</t>
+          <t>2,8; 3,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 3,57</t>
+          <t>3,22; 3,59</t>
         </is>
       </c>
     </row>
